--- a/mmoarpg-j21/cfg/Vip.xlsx
+++ b/mmoarpg-j21/cfg/Vip.xlsx
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>vip等级</t>
   </si>
@@ -209,70 +209,79 @@
     <t>id</t>
   </si>
   <si>
+    <t>exp</t>
+  </si>
+  <si>
     <t>vip_name</t>
   </si>
   <si>
+    <t>rewards</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[][]</t>
+  </si>
+  <si>
+    <t>vip升级所需要的经验</t>
+  </si>
+  <si>
+    <t>vip名字</t>
+  </si>
+  <si>
+    <t>解锁后获得奖励</t>
+  </si>
+  <si>
+    <t>贵族1</t>
+  </si>
+  <si>
+    <t>2:102010001:1</t>
+  </si>
+  <si>
+    <t>贵族2</t>
+  </si>
+  <si>
+    <t>贵族3</t>
+  </si>
+  <si>
+    <t>贵族4</t>
+  </si>
+  <si>
+    <t>贵族5</t>
+  </si>
+  <si>
+    <t>贵族6</t>
+  </si>
+  <si>
+    <t>贵族7</t>
+  </si>
+  <si>
+    <t>贵族8</t>
+  </si>
+  <si>
+    <t>贵族9</t>
+  </si>
+  <si>
+    <t>贵族10</t>
+  </si>
+  <si>
+    <t>vip礼包</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>all  全部； client 客户端； server是服务器；no是不要的</t>
+  </si>
+  <si>
     <t>shop_item</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int[][]</t>
-  </si>
-  <si>
-    <t>vip名字</t>
-  </si>
-  <si>
-    <t>解锁后获得奖励</t>
-  </si>
-  <si>
-    <t>贵族1</t>
-  </si>
-  <si>
-    <t>2:102010001:1</t>
-  </si>
-  <si>
-    <t>贵族2</t>
-  </si>
-  <si>
-    <t>贵族3</t>
-  </si>
-  <si>
-    <t>贵族4</t>
-  </si>
-  <si>
-    <t>贵族5</t>
-  </si>
-  <si>
-    <t>贵族6</t>
-  </si>
-  <si>
-    <t>贵族7</t>
-  </si>
-  <si>
-    <t>贵族8</t>
-  </si>
-  <si>
-    <t>贵族9</t>
-  </si>
-  <si>
-    <t>贵族10</t>
-  </si>
-  <si>
-    <t>vip礼包</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
-    <t>all  全部； client 客户端； server是服务器；no是不要的</t>
   </si>
   <si>
     <t>name_1</t>
@@ -556,12 +565,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1447,28 +1456,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="20.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1478,8 +1489,11 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1489,10 +1503,13 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -1500,131 +1517,167 @@
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="9">
+        <v>100</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="9">
+        <v>200</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="9">
+        <v>300</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" s="9">
+        <v>400</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="9">
+        <v>500</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="9">
+        <v>600</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="9">
+        <v>700</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13" s="9">
+        <v>800</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" s="9">
+        <v>900</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="9">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>11</v>
+      <c r="B15" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2">
     <cfRule type="containsText" dxfId="0" priority="7" operator="between" text="102131002">
@@ -1649,30 +1702,53 @@
       <formula>NOT(ISERROR(SEARCH("102133005",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="between" text="102133005">
+      <formula>NOT(ISERROR(SEARCH("102133005",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="102133004">
+      <formula>NOT(ISERROR(SEARCH("102133004",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="10" operator="between" text="102133003">
+      <formula>NOT(ISERROR(SEARCH("102133003",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="11" operator="between" text="102133002">
+      <formula>NOT(ISERROR(SEARCH("102133002",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="12" operator="between" text="102133001">
+      <formula>NOT(ISERROR(SEARCH("102133001",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="13" operator="between" text="102132001">
+      <formula>NOT(ISERROR(SEARCH("102132001",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="14" operator="between" text="102131002">
+      <formula>NOT(ISERROR(SEARCH("102131002",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C15">
-    <cfRule type="containsText" dxfId="0" priority="22" operator="between" text="102133005">
-      <formula>NOT(ISERROR(SEARCH("102133005",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="23" operator="between" text="102133004">
-      <formula>NOT(ISERROR(SEARCH("102133004",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="24" operator="between" text="102133003">
-      <formula>NOT(ISERROR(SEARCH("102133003",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="25" operator="between" text="102133002">
-      <formula>NOT(ISERROR(SEARCH("102133002",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="26" operator="between" text="102133001">
-      <formula>NOT(ISERROR(SEARCH("102133001",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="27" operator="between" text="102132001">
-      <formula>NOT(ISERROR(SEARCH("102132001",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="28" operator="between" text="102131002">
-      <formula>NOT(ISERROR(SEARCH("102131002",C2)))</formula>
+  <conditionalFormatting sqref="D2:D15">
+    <cfRule type="containsText" dxfId="0" priority="29" operator="between" text="102133005">
+      <formula>NOT(ISERROR(SEARCH("102133005",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="30" operator="between" text="102133004">
+      <formula>NOT(ISERROR(SEARCH("102133004",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="31" operator="between" text="102133003">
+      <formula>NOT(ISERROR(SEARCH("102133003",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="32" operator="between" text="102133002">
+      <formula>NOT(ISERROR(SEARCH("102133002",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="33" operator="between" text="102133001">
+      <formula>NOT(ISERROR(SEARCH("102133001",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="34" operator="between" text="102132001">
+      <formula>NOT(ISERROR(SEARCH("102132001",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="35" operator="between" text="102131002">
+      <formula>NOT(ISERROR(SEARCH("102131002",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1707,7 +1783,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -1719,13 +1795,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>1</v>
@@ -1737,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1745,80 +1821,80 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1826,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
@@ -1844,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1852,13 +1928,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
@@ -1870,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1878,13 +1954,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
@@ -1896,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -1904,42 +1980,42 @@
     </row>
     <row r="10" spans="11:11">
       <c r="K10" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="11:11">
       <c r="K11" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="11:11">
       <c r="K12" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="11:11">
       <c r="K13" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="11:11">
       <c r="K14" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="11:11">
       <c r="K15" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="11:11">
       <c r="K17" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/mmoarpg-j21/cfg/Vip.xlsx
+++ b/mmoarpg-j21/cfg/Vip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="q_vip" sheetId="5" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>vip等级</t>
   </si>
@@ -366,27 +366,6 @@
   </si>
   <si>
     <t>1:101011001:1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">支持的类型 bool ,byte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool </t>
-  </si>
-  <si>
-    <t xml:space="preserve">byte </t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int  int[] int[][] </t>
-  </si>
-  <si>
-    <t>long long[] long[][]</t>
-  </si>
-  <si>
-    <t>float float[] float[][]</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1105,9 +1084,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1456,10 +1432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="$A16:$XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1472,12 +1448,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
@@ -1675,6 +1651,7 @@
         <v>13</v>
       </c>
     </row>
+    <row r="36" ht="14.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -1760,13 +1737,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" customWidth="1"/>
@@ -1975,49 +1952,6 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="11:11">
-      <c r="K10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="11:11">
-      <c r="K11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="11:11">
-      <c r="K12" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="11:11">
-      <c r="K13" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="11:11">
-      <c r="K14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="11:11">
-      <c r="K15" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="11:11">
-      <c r="K16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/mmoarpg-j21/cfg/Vip.xlsx
+++ b/mmoarpg-j21/cfg/Vip.xlsx
@@ -1432,7 +1432,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="$A16:$XFD35"/>
@@ -1651,7 +1651,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" ht="14.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -1888,7 +1887,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="11" t="b">
         <v>1</v>
@@ -1914,7 +1913,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="11" t="b">
         <v>0</v>
@@ -1940,7 +1939,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="11" t="b">
         <v>1</v>
